--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>157.7984646666667</v>
+        <v>79.20169066666666</v>
       </c>
       <c r="H2">
-        <v>473.395394</v>
+        <v>237.605072</v>
       </c>
       <c r="I2">
-        <v>0.341075365555871</v>
+        <v>0.1882902756436698</v>
       </c>
       <c r="J2">
-        <v>0.3410753655558709</v>
+        <v>0.1882902756436699</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N2">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q2">
-        <v>292.6485616143011</v>
+        <v>108.5757232949209</v>
       </c>
       <c r="R2">
-        <v>2633.83705452871</v>
+        <v>977.1815096542881</v>
       </c>
       <c r="S2">
-        <v>0.005632421878807096</v>
+        <v>0.002076960945679097</v>
       </c>
       <c r="T2">
-        <v>0.005632421878807097</v>
+        <v>0.002076960945679097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>157.7984646666667</v>
+        <v>79.20169066666666</v>
       </c>
       <c r="H3">
-        <v>473.395394</v>
+        <v>237.605072</v>
       </c>
       <c r="I3">
-        <v>0.341075365555871</v>
+        <v>0.1882902756436698</v>
       </c>
       <c r="J3">
-        <v>0.3410753655558709</v>
+        <v>0.1882902756436699</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P3">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q3">
-        <v>14661.64304626191</v>
+        <v>7358.924053336606</v>
       </c>
       <c r="R3">
-        <v>131954.7874163572</v>
+        <v>66230.31648002946</v>
       </c>
       <c r="S3">
-        <v>0.2821833759151132</v>
+        <v>0.1407699382253495</v>
       </c>
       <c r="T3">
-        <v>0.2821833759151132</v>
+        <v>0.1407699382253495</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>157.7984646666667</v>
+        <v>79.20169066666666</v>
       </c>
       <c r="H4">
-        <v>473.395394</v>
+        <v>237.605072</v>
       </c>
       <c r="I4">
-        <v>0.341075365555871</v>
+        <v>0.1882902756436698</v>
       </c>
       <c r="J4">
-        <v>0.3410753655558709</v>
+        <v>0.1882902756436699</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N4">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q4">
-        <v>2741.668109363794</v>
+        <v>2353.754176850282</v>
       </c>
       <c r="R4">
-        <v>24675.01298427415</v>
+        <v>21183.78759165254</v>
       </c>
       <c r="S4">
-        <v>0.05276715306040204</v>
+        <v>0.04502530909021148</v>
       </c>
       <c r="T4">
-        <v>0.05276715306040203</v>
+        <v>0.04502530909021148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>157.7984646666667</v>
+        <v>79.20169066666666</v>
       </c>
       <c r="H5">
-        <v>473.395394</v>
+        <v>237.605072</v>
       </c>
       <c r="I5">
-        <v>0.341075365555871</v>
+        <v>0.1882902756436698</v>
       </c>
       <c r="J5">
-        <v>0.3410753655558709</v>
+        <v>0.1882902756436699</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N5">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O5">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P5">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q5">
-        <v>25.58481186719467</v>
+        <v>21.85499372425067</v>
       </c>
       <c r="R5">
-        <v>230.263306804752</v>
+        <v>196.694943518256</v>
       </c>
       <c r="S5">
-        <v>0.0004924147015486599</v>
+        <v>0.0004180673824298051</v>
       </c>
       <c r="T5">
-        <v>0.0004924147015486599</v>
+        <v>0.0004180673824298051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>382.53283</v>
       </c>
       <c r="I6">
-        <v>0.2756100428585324</v>
+        <v>0.3031383606299999</v>
       </c>
       <c r="J6">
-        <v>0.2756100428585324</v>
+        <v>0.3031383606299999</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N6">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q6">
-        <v>236.4781826959389</v>
+        <v>174.8017344566744</v>
       </c>
       <c r="R6">
-        <v>2128.30364426345</v>
+        <v>1573.21561011007</v>
       </c>
       <c r="S6">
-        <v>0.004551346101719772</v>
+        <v>0.003343808032642086</v>
       </c>
       <c r="T6">
-        <v>0.004551346101719773</v>
+        <v>0.003343808032642086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>382.53283</v>
       </c>
       <c r="I7">
-        <v>0.2756100428585324</v>
+        <v>0.3031383606299999</v>
       </c>
       <c r="J7">
-        <v>0.2756100428585324</v>
+        <v>0.3031383606299999</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P7">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q7">
         <v>11847.51663835662</v>
@@ -883,10 +883,10 @@
         <v>106627.6497452096</v>
       </c>
       <c r="S7">
-        <v>0.2280216637844222</v>
+        <v>0.226632884538206</v>
       </c>
       <c r="T7">
-        <v>0.2280216637844222</v>
+        <v>0.2266328845382059</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>382.53283</v>
       </c>
       <c r="I8">
-        <v>0.2756100428585324</v>
+        <v>0.3031383606299999</v>
       </c>
       <c r="J8">
-        <v>0.2756100428585324</v>
+        <v>0.3031383606299999</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N8">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q8">
-        <v>2215.437822353806</v>
+        <v>3789.431929276573</v>
       </c>
       <c r="R8">
-        <v>19938.94040118425</v>
+        <v>34104.88736348916</v>
       </c>
       <c r="S8">
-        <v>0.04263913136264852</v>
+        <v>0.07248859951905119</v>
       </c>
       <c r="T8">
-        <v>0.04263913136264852</v>
+        <v>0.07248859951905116</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>382.53283</v>
       </c>
       <c r="I9">
-        <v>0.2756100428585324</v>
+        <v>0.3031383606299999</v>
       </c>
       <c r="J9">
-        <v>0.2756100428585324</v>
+        <v>0.3031383606299999</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N9">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O9">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P9">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q9">
-        <v>20.67411430829334</v>
+        <v>35.18549721434333</v>
       </c>
       <c r="R9">
-        <v>186.06702877464</v>
+        <v>316.66947492909</v>
       </c>
       <c r="S9">
-        <v>0.000397901609741928</v>
+        <v>0.0006730685401007165</v>
       </c>
       <c r="T9">
-        <v>0.000397901609741928</v>
+        <v>0.0006730685401007164</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>91.212982</v>
+        <v>128.6091306666667</v>
       </c>
       <c r="H10">
-        <v>273.638946</v>
+        <v>385.827392</v>
       </c>
       <c r="I10">
-        <v>0.1971533832398742</v>
+        <v>0.3057491381773125</v>
       </c>
       <c r="J10">
-        <v>0.1971533832398741</v>
+        <v>0.3057491381773124</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N10">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q10">
-        <v>169.1610120493767</v>
+        <v>176.3072134815076</v>
       </c>
       <c r="R10">
-        <v>1522.44910844439</v>
+        <v>1586.764921333568</v>
       </c>
       <c r="S10">
-        <v>0.003255735070257387</v>
+        <v>0.003372606561854959</v>
       </c>
       <c r="T10">
-        <v>0.003255735070257387</v>
+        <v>0.003372606561854957</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>91.212982</v>
+        <v>128.6091306666667</v>
       </c>
       <c r="H11">
-        <v>273.638946</v>
+        <v>385.827392</v>
       </c>
       <c r="I11">
-        <v>0.1971533832398742</v>
+        <v>0.3057491381773125</v>
       </c>
       <c r="J11">
-        <v>0.1971533832398741</v>
+        <v>0.3057491381773124</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>278.741173</v>
       </c>
       <c r="O11">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P11">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q11">
-        <v>8474.937865169295</v>
+        <v>11949.55331351232</v>
       </c>
       <c r="R11">
-        <v>76274.44078652366</v>
+        <v>107545.9798216108</v>
       </c>
       <c r="S11">
-        <v>0.1631117719834286</v>
+        <v>0.2285847590723472</v>
       </c>
       <c r="T11">
-        <v>0.1631117719834286</v>
+        <v>0.2285847590723471</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>91.212982</v>
+        <v>128.6091306666667</v>
       </c>
       <c r="H12">
-        <v>273.638946</v>
+        <v>385.827392</v>
       </c>
       <c r="I12">
-        <v>0.1971533832398742</v>
+        <v>0.3057491381773125</v>
       </c>
       <c r="J12">
-        <v>0.1971533832398741</v>
+        <v>0.3057491381773124</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N12">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q12">
-        <v>1584.779195650817</v>
+        <v>3822.068391971243</v>
       </c>
       <c r="R12">
-        <v>14263.01276085735</v>
+        <v>34398.61552774119</v>
       </c>
       <c r="S12">
-        <v>0.03050124342120043</v>
+        <v>0.07311290720372414</v>
       </c>
       <c r="T12">
-        <v>0.03050124342120043</v>
+        <v>0.07311290720372411</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>91.212982</v>
+        <v>128.6091306666667</v>
       </c>
       <c r="H13">
-        <v>273.638946</v>
+        <v>385.827392</v>
       </c>
       <c r="I13">
-        <v>0.1971533832398742</v>
+        <v>0.3057491381773125</v>
       </c>
       <c r="J13">
-        <v>0.1971533832398741</v>
+        <v>0.3057491381773124</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N13">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O13">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P13">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q13">
-        <v>14.788908049552</v>
+        <v>35.48853212529067</v>
       </c>
       <c r="R13">
-        <v>133.100172445968</v>
+        <v>319.396789127616</v>
       </c>
       <c r="S13">
-        <v>0.0002846327649877385</v>
+        <v>0.0006788653393861826</v>
       </c>
       <c r="T13">
-        <v>0.0002846327649877385</v>
+        <v>0.0006788653393861824</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>86.127454</v>
+        <v>85.31435366666666</v>
       </c>
       <c r="H14">
-        <v>258.382362</v>
+        <v>255.943061</v>
       </c>
       <c r="I14">
-        <v>0.1861612083457225</v>
+        <v>0.2028222255490178</v>
       </c>
       <c r="J14">
-        <v>0.1861612083457225</v>
+        <v>0.2028222255490178</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N14">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O14">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P14">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q14">
-        <v>159.7295359105367</v>
+        <v>116.9554283352632</v>
       </c>
       <c r="R14">
-        <v>1437.56582319483</v>
+        <v>1052.598855017369</v>
       </c>
       <c r="S14">
-        <v>0.003074213410759664</v>
+        <v>0.002237257553216553</v>
       </c>
       <c r="T14">
-        <v>0.003074213410759665</v>
+        <v>0.002237257553216552</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>86.127454</v>
+        <v>85.31435366666666</v>
       </c>
       <c r="H15">
-        <v>258.382362</v>
+        <v>255.943061</v>
       </c>
       <c r="I15">
-        <v>0.1861612083457225</v>
+        <v>0.2028222255490178</v>
       </c>
       <c r="J15">
-        <v>0.1861612083457225</v>
+        <v>0.2028222255490178</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>278.741173</v>
       </c>
       <c r="O15">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P15">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q15">
-        <v>8002.422518487848</v>
+        <v>7926.874338261172</v>
       </c>
       <c r="R15">
-        <v>72021.80266639062</v>
+        <v>71341.86904435055</v>
       </c>
       <c r="S15">
-        <v>0.1540175677883356</v>
+        <v>0.1516343425790879</v>
       </c>
       <c r="T15">
-        <v>0.1540175677883356</v>
+        <v>0.1516343425790879</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>86.127454</v>
+        <v>85.31435366666666</v>
       </c>
       <c r="H16">
-        <v>258.382362</v>
+        <v>255.943061</v>
       </c>
       <c r="I16">
-        <v>0.1861612083457225</v>
+        <v>0.2028222255490178</v>
       </c>
       <c r="J16">
-        <v>0.1861612083457225</v>
+        <v>0.2028222255490178</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N16">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O16">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P16">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q16">
-        <v>1496.420731794217</v>
+        <v>2535.413254413174</v>
       </c>
       <c r="R16">
-        <v>13467.78658614795</v>
+        <v>22818.71928971857</v>
       </c>
       <c r="S16">
-        <v>0.02880066391977233</v>
+        <v>0.04850029224552854</v>
       </c>
       <c r="T16">
-        <v>0.02880066391977233</v>
+        <v>0.04850029224552853</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>86.127454</v>
+        <v>85.31435366666666</v>
       </c>
       <c r="H17">
-        <v>258.382362</v>
+        <v>255.943061</v>
       </c>
       <c r="I17">
-        <v>0.1861612083457225</v>
+        <v>0.2028222255490178</v>
       </c>
       <c r="J17">
-        <v>0.1861612083457225</v>
+        <v>0.2028222255490178</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N17">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O17">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P17">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q17">
-        <v>13.964360881744</v>
+        <v>23.54172806513366</v>
       </c>
       <c r="R17">
-        <v>125.679247935696</v>
+        <v>211.875552586203</v>
       </c>
       <c r="S17">
-        <v>0.0002687632268548599</v>
+        <v>0.0004503331711847546</v>
       </c>
       <c r="T17">
-        <v>0.00026876322685486</v>
+        <v>0.0004503331711847545</v>
       </c>
     </row>
   </sheetData>
